--- a/Results/Actual/Actual_EV_rate_cost_hourly.xlsx
+++ b/Results/Actual/Actual_EV_rate_cost_hourly.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>205.3319264790665</v>
+        <v>242.9301789682836</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>201.5863205633021</v>
+        <v>241.7533522765146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>197.7515474153679</v>
+        <v>244.4072642249967</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>183.1546990677377</v>
+        <v>230.6829339348994</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>166.9550668901577</v>
+        <v>219.1516994869718</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>153.1601399906537</v>
+        <v>211.218754640267</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>139.4287896694469</v>
+        <v>203.3390079515765</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>132.7045979062167</v>
+        <v>201.3797721673737</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>157.5743074667421</v>
+        <v>245.4722048135623</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>173.0684233163471</v>
+        <v>254.8313851478964</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>181.3789283752431</v>
+        <v>260.2003103654174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>175.4848159391889</v>
+        <v>259.9537246242008</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>168.9406174476665</v>
+        <v>252.9227432672594</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>175.0345037795113</v>
+        <v>267.3152168258129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>170.0153726851095</v>
+        <v>300.3356876444313</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>191.2991232056154</v>
+        <v>305.7807857621891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>162.6925908480102</v>
+        <v>258.7384440859091</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>150.6525323946167</v>
+        <v>237.7027714931847</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>172.2835809126047</v>
+        <v>281.3168672212262</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>166.2134671453645</v>
+        <v>256.801896043078</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>158.3577904543579</v>
+        <v>238.1904045372331</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>156.2409552427273</v>
+        <v>229.3050071278335</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>149.9029279396488</v>
+        <v>203.1075069825606</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>173.4139365668221</v>
+        <v>217.5450755808948</v>
       </c>
     </row>
   </sheetData>
